--- a/data/Antenna/BoresightGainHornAntennaHP.xlsx
+++ b/data/Antenna/BoresightGainHornAntennaHP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josea\Documents\GitHub\AutomatedRadioEvaluationSuite\data\Antenna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE0C921-B949-420F-845A-6F39C7C9B806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4478F18-D275-4091-96CF-4480CA1E4BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,15 +33,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Frequency (Hz)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Gain (dBi)</t>
   </si>
   <si>
     <t>Return Loss (dB)</t>
+  </si>
+  <si>
+    <t>Theta (deg)</t>
+  </si>
+  <si>
+    <t>Phi (deg)</t>
+  </si>
+  <si>
+    <t>Frequency (MHz)</t>
+  </si>
+  <si>
+    <t>Return Loss (deg)</t>
   </si>
 </sst>
 </file>
@@ -410,301 +419,536 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" customWidth="1"/>
-    <col min="2" max="3" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" customWidth="1"/>
+    <col min="4" max="5" width="14.453125" customWidth="1"/>
+    <col min="6" max="6" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>400000000</v>
+        <v>0</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>400</v>
+      </c>
+      <c r="D2">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>500000000</v>
+        <v>0</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>500</v>
+      </c>
+      <c r="D3">
         <v>3.19</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>600000000</v>
+        <v>0</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>600</v>
+      </c>
+      <c r="D4">
         <v>3.49</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>700000000</v>
+        <v>0</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>700</v>
+      </c>
+      <c r="D5">
         <v>4.26</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>800000000</v>
+        <v>0</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>800</v>
+      </c>
+      <c r="D6">
         <v>7.02</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>900000000</v>
+        <v>0</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>900</v>
+      </c>
+      <c r="D7">
         <v>6.96</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>1000000000</v>
+        <v>0</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8">
         <v>6.79</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>1500000000</v>
+        <v>0</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1500</v>
+      </c>
+      <c r="D9">
         <v>8.14</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2000000000</v>
+        <v>0</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2000</v>
+      </c>
+      <c r="D10">
         <v>8.68</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2500000000</v>
+        <v>0</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2500</v>
+      </c>
+      <c r="D11">
         <v>7.64</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>3000000000</v>
+        <v>0</v>
       </c>
       <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>3000</v>
+      </c>
+      <c r="D12">
         <v>7.13</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>3500000000</v>
+        <v>0</v>
       </c>
       <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>3500</v>
+      </c>
+      <c r="D13">
         <v>6.52</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>4000000000</v>
+        <v>0</v>
       </c>
       <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>4000</v>
+      </c>
+      <c r="D14">
         <v>5.53</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>4500000000</v>
+        <v>0</v>
       </c>
       <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>4500</v>
+      </c>
+      <c r="D15">
         <v>7.43</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>5000000000</v>
+        <v>0</v>
       </c>
       <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>5000</v>
+      </c>
+      <c r="D16">
         <v>8.3699999999999992</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>5500000000</v>
+        <v>0</v>
       </c>
       <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>5500</v>
+      </c>
+      <c r="D17">
         <v>9.52</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>6000000000</v>
+        <v>0</v>
       </c>
       <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>6000</v>
+      </c>
+      <c r="D18">
         <v>9.75</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>6500000000</v>
+        <v>0</v>
       </c>
       <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>6500</v>
+      </c>
+      <c r="D19">
         <v>9.7799999999999994</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>7000000000</v>
+        <v>0</v>
       </c>
       <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>7000</v>
+      </c>
+      <c r="D20">
         <v>10.5</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>7500000000</v>
+        <v>0</v>
       </c>
       <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>7500</v>
+      </c>
+      <c r="D21">
         <v>9.7799999999999994</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>8000000000</v>
+        <v>0</v>
       </c>
       <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>8000</v>
+      </c>
+      <c r="D22">
         <v>9.4600000000000009</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>8500000000</v>
+        <v>0</v>
       </c>
       <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>8500</v>
+      </c>
+      <c r="D23">
         <v>7.79</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>9000000000</v>
+        <v>0</v>
       </c>
       <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>9000</v>
+      </c>
+      <c r="D24">
         <v>8.06</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>9500000000</v>
+        <v>0</v>
       </c>
       <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>9500</v>
+      </c>
+      <c r="D25">
         <v>8.56</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>10000000000</v>
+        <v>0</v>
       </c>
       <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>10000</v>
+      </c>
+      <c r="D26">
         <v>8.2200000000000006</v>
       </c>
-      <c r="C26">
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>0</v>
       </c>
     </row>
